--- a/data_table/EntityAttrBase.xlsx
+++ b/data_table/EntityAttrBase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>#</t>
   </si>
@@ -45,6 +45,9 @@
     <t>moveSpeed</t>
   </si>
   <si>
+    <t>attackRange</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -76,6 +79,9 @@
   </si>
   <si>
     <t>移动速度(*1000)</t>
+  </si>
+  <si>
+    <t>攻击距离(*1000)</t>
   </si>
   <si>
     <t>上官翎</t>
@@ -92,10 +98,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -103,6 +109,88 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -122,63 +210,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -187,37 +218,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -228,23 +228,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,13 +265,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -277,13 +349,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,151 +445,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,30 +456,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -503,6 +485,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -512,11 +518,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,17 +548,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,10 +564,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -570,133 +576,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1076,10 +1082,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1089,9 +1095,10 @@
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="8" max="8" width="14.625" style="1" customWidth="1"/>
     <col min="9" max="9" width="15.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1119,66 +1126,75 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" ht="93" customHeight="1" spans="1:9">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" ht="93" customHeight="1" spans="1:10">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1186,7 +1202,7 @@
         <v>10001001</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D4" s="5">
         <v>80</v>
@@ -1206,8 +1222,11 @@
       <c r="I4" s="7">
         <v>3500</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1215,7 +1234,7 @@
         <v>10001002</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D5" s="5">
         <v>100</v>
@@ -1234,6 +1253,9 @@
       </c>
       <c r="I5" s="7">
         <v>4000</v>
+      </c>
+      <c r="J5">
+        <v>5000</v>
       </c>
     </row>
     <row r="6" spans="3:9">
@@ -1245,7 +1267,7 @@
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1253,16 +1275,16 @@
         <v>10003001</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D7" s="5">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="E7" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F7" s="6">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="G7" s="6">
         <v>125</v>
@@ -1272,6 +1294,9 @@
       </c>
       <c r="I7" s="7">
         <v>4000</v>
+      </c>
+      <c r="J7">
+        <v>1500</v>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1" spans="3:9">

--- a/data_table/EntityAttrBase.xlsx
+++ b/data_table/EntityAttrBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -98,10 +98,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -112,83 +112,85 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,41 +204,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,37 +265,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,145 +439,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,11 +461,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -485,6 +483,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -500,20 +518,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,21 +548,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -564,10 +564,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -576,133 +576,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1085,7 +1085,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1293,7 +1293,7 @@
         <v>850</v>
       </c>
       <c r="I7" s="7">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="J7">
         <v>1500</v>

--- a/data_table/EntityAttrBase.xlsx
+++ b/data_table/EntityAttrBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -98,10 +98,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -113,19 +113,49 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -134,6 +164,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -142,33 +187,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -181,69 +204,46 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,175 +265,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,15 +456,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -483,13 +474,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -503,17 +498,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,6 +545,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -564,10 +564,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -576,133 +576,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1085,7 +1085,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1208,16 +1208,16 @@
         <v>80</v>
       </c>
       <c r="E4" s="6">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F4" s="6">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G4" s="6">
         <v>100</v>
       </c>
       <c r="H4" s="7">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="I4" s="7">
         <v>3500</v>
@@ -1255,7 +1255,7 @@
         <v>4000</v>
       </c>
       <c r="J5">
-        <v>5000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="6" spans="3:9">
@@ -1278,22 +1278,22 @@
         <v>24</v>
       </c>
       <c r="D7" s="5">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="E7" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F7" s="6">
-        <v>1200</v>
+        <v>4000</v>
       </c>
       <c r="G7" s="6">
         <v>125</v>
       </c>
       <c r="H7" s="7">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="I7" s="7">
-        <v>2800</v>
+        <v>1500</v>
       </c>
       <c r="J7">
         <v>1500</v>

--- a/data_table/EntityAttrBase.xlsx
+++ b/data_table/EntityAttrBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1085,7 +1085,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1284,7 +1284,7 @@
         <v>5</v>
       </c>
       <c r="F7" s="6">
-        <v>4000</v>
+        <v>300</v>
       </c>
       <c r="G7" s="6">
         <v>125</v>
@@ -1293,7 +1293,7 @@
         <v>750</v>
       </c>
       <c r="I7" s="7">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="J7">
         <v>1500</v>

--- a/data_table/EntityAttrBase.xlsx
+++ b/data_table/EntityAttrBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="11940"/>
+    <workbookView windowWidth="28125" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>#</t>
   </si>
@@ -84,13 +84,19 @@
     <t>攻击距离(*1000)</t>
   </si>
   <si>
-    <t>上官翎</t>
+    <t>上官唯</t>
   </si>
   <si>
     <t>凤紫夕</t>
   </si>
   <si>
+    <t>唐依</t>
+  </si>
+  <si>
     <t>怪物1</t>
+  </si>
+  <si>
+    <t>刀疤</t>
   </si>
 </sst>
 </file>
@@ -1082,10 +1088,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1093,6 +1099,7 @@
     <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="3" width="9.25" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="6" max="6" width="9.375"/>
     <col min="8" max="8" width="14.625" style="1" customWidth="1"/>
     <col min="9" max="9" width="15.875" style="1" customWidth="1"/>
     <col min="10" max="10" width="14.875" customWidth="1"/>
@@ -1205,13 +1212,13 @@
         <v>22</v>
       </c>
       <c r="D4" s="5">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="E4" s="6">
         <v>10</v>
       </c>
       <c r="F4" s="6">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="G4" s="6">
         <v>100</v>
@@ -1258,68 +1265,91 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="6" spans="3:9">
-      <c r="C6" s="4"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s">
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
         <v>0</v>
       </c>
-      <c r="B7">
-        <v>10003001</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="B6">
+        <v>10001003</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="5">
-        <v>35</v>
-      </c>
-      <c r="E7" s="6">
+      <c r="D6" s="5">
+        <v>100</v>
+      </c>
+      <c r="E6" s="6">
         <v>5</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F6" s="6">
         <v>300</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G6" s="6">
         <v>125</v>
       </c>
-      <c r="H7" s="7">
-        <v>750</v>
-      </c>
-      <c r="I7" s="7">
-        <v>1000</v>
-      </c>
-      <c r="J7">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1" spans="3:9">
+      <c r="H6" s="7">
+        <v>850</v>
+      </c>
+      <c r="I6" s="7">
+        <v>4000</v>
+      </c>
+      <c r="J6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9">
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="3:9">
       <c r="C8" s="4"/>
-      <c r="D8" s="8"/>
+      <c r="D8" s="5"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
     </row>
-    <row r="9" spans="3:9">
-      <c r="C9" s="4"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>10003001</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="5">
+        <v>40</v>
+      </c>
+      <c r="E9" s="6">
+        <v>5</v>
+      </c>
+      <c r="F9" s="6">
+        <v>5000000</v>
+      </c>
+      <c r="G9" s="6">
+        <v>125</v>
+      </c>
+      <c r="H9" s="7">
+        <v>750</v>
+      </c>
+      <c r="I9" s="7">
+        <v>3000</v>
+      </c>
+      <c r="J9">
+        <v>1500</v>
+      </c>
     </row>
     <row r="10" spans="3:9">
       <c r="C10" s="4"/>
-      <c r="D10" s="8"/>
+      <c r="D10" s="5"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -1380,14 +1410,37 @@
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="3:9">
-      <c r="C17" s="4"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>10003031</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="5">
+        <v>150</v>
+      </c>
+      <c r="E17" s="6">
+        <v>20</v>
+      </c>
+      <c r="F17" s="6">
+        <v>30000000</v>
+      </c>
+      <c r="G17" s="6">
+        <v>125</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1000</v>
+      </c>
+      <c r="I17" s="7">
+        <v>3600</v>
+      </c>
+      <c r="J17">
+        <v>1500</v>
+      </c>
     </row>
     <row r="18" spans="3:9">
       <c r="C18" s="4"/>
@@ -1496,6 +1549,24 @@
       <c r="G29" s="6"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
+    </row>
+    <row r="30" spans="3:9">
+      <c r="C30" s="4"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+    </row>
+    <row r="31" spans="3:9">
+      <c r="C31" s="4"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data_table/EntityAttrBase.xlsx
+++ b/data_table/EntityAttrBase.xlsx
@@ -1091,7 +1091,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1288,7 +1288,7 @@
         <v>125</v>
       </c>
       <c r="H6" s="7">
-        <v>850</v>
+        <v>2000</v>
       </c>
       <c r="I6" s="7">
         <v>4000</v>

--- a/data_table/EntityAttrBase.xlsx
+++ b/data_table/EntityAttrBase.xlsx
@@ -1091,7 +1091,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1224,7 +1224,7 @@
         <v>100</v>
       </c>
       <c r="H4" s="7">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="I4" s="7">
         <v>3500</v>
@@ -1288,7 +1288,7 @@
         <v>125</v>
       </c>
       <c r="H6" s="7">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="I6" s="7">
         <v>4000</v>

--- a/data_table/EntityAttrBase.xlsx
+++ b/data_table/EntityAttrBase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
   <si>
     <t>#</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>怪物1</t>
+  </si>
+  <si>
+    <t>怪物2</t>
   </si>
   <si>
     <t>刀疤</t>
@@ -1091,7 +1094,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1212,19 +1215,19 @@
         <v>22</v>
       </c>
       <c r="D4" s="5">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="E4" s="6">
         <v>10</v>
       </c>
       <c r="F4" s="6">
-        <v>2000</v>
+        <v>1000000</v>
       </c>
       <c r="G4" s="6">
         <v>100</v>
       </c>
       <c r="H4" s="7">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="I4" s="7">
         <v>3500</v>
@@ -1276,22 +1279,22 @@
         <v>24</v>
       </c>
       <c r="D6" s="5">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E6" s="6">
         <v>5</v>
       </c>
       <c r="F6" s="6">
-        <v>300</v>
+        <v>10000</v>
       </c>
       <c r="G6" s="6">
         <v>125</v>
       </c>
       <c r="H6" s="7">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="I6" s="7">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="J6">
         <v>6000</v>
@@ -1347,14 +1350,37 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="10" spans="3:9">
-      <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>10003002</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="5">
+        <v>40</v>
+      </c>
+      <c r="E10" s="6">
+        <v>5</v>
+      </c>
+      <c r="F10" s="6">
+        <v>5000000</v>
+      </c>
+      <c r="G10" s="6">
+        <v>125</v>
+      </c>
+      <c r="H10" s="7">
+        <v>750</v>
+      </c>
+      <c r="I10" s="7">
+        <v>3000</v>
+      </c>
+      <c r="J10">
+        <v>1500</v>
+      </c>
     </row>
     <row r="11" spans="3:9">
       <c r="C11" s="4"/>
@@ -1418,7 +1444,7 @@
         <v>10003031</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" s="5">
         <v>150</v>

--- a/data_table/EntityAttrBase.xlsx
+++ b/data_table/EntityAttrBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420"/>
+    <workbookView windowWidth="28800" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -93,10 +93,10 @@
     <t>唐依</t>
   </si>
   <si>
-    <t>怪物1</t>
-  </si>
-  <si>
-    <t>怪物2</t>
+    <t>怪物1 近战</t>
+  </si>
+  <si>
+    <t>怪物2 远程</t>
   </si>
   <si>
     <t>刀疤</t>
@@ -1094,14 +1094,14 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="15.375" customWidth="1"/>
-    <col min="3" max="3" width="9.25" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="3" max="3" width="10.875" customWidth="1"/>
+    <col min="4" max="4" width="10.25" customWidth="1"/>
     <col min="6" max="6" width="9.375"/>
     <col min="8" max="8" width="14.625" style="1" customWidth="1"/>
     <col min="9" max="9" width="15.875" style="1" customWidth="1"/>
@@ -1215,22 +1215,22 @@
         <v>22</v>
       </c>
       <c r="D4" s="5">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="E4" s="6">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="F4" s="6">
-        <v>1000000</v>
+        <v>2600</v>
       </c>
       <c r="G4" s="6">
         <v>100</v>
       </c>
       <c r="H4" s="7">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="I4" s="7">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="J4">
         <v>1500</v>
@@ -1279,10 +1279,10 @@
         <v>24</v>
       </c>
       <c r="D6" s="5">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="E6" s="6">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F6" s="6">
         <v>10000</v>
@@ -1291,13 +1291,13 @@
         <v>125</v>
       </c>
       <c r="H6" s="7">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="I6" s="7">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="J6">
-        <v>6000</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="7" spans="3:9">
@@ -1329,13 +1329,13 @@
         <v>25</v>
       </c>
       <c r="D9" s="5">
-        <v>40</v>
+        <v>135</v>
       </c>
       <c r="E9" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F9" s="6">
-        <v>5000000</v>
+        <v>750</v>
       </c>
       <c r="G9" s="6">
         <v>125</v>
@@ -1344,7 +1344,7 @@
         <v>750</v>
       </c>
       <c r="I9" s="7">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="J9">
         <v>1500</v>
@@ -1361,25 +1361,25 @@
         <v>26</v>
       </c>
       <c r="D10" s="5">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="E10" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F10" s="6">
-        <v>5000000</v>
+        <v>550</v>
       </c>
       <c r="G10" s="6">
         <v>125</v>
       </c>
       <c r="H10" s="7">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="I10" s="7">
         <v>3000</v>
       </c>
       <c r="J10">
-        <v>1500</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="11" spans="3:9">

--- a/data_table/EntityAttrBase.xlsx
+++ b/data_table/EntityAttrBase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
   <si>
     <t>#</t>
   </si>
@@ -48,6 +48,9 @@
     <t>attackRange</t>
   </si>
   <si>
+    <t>inputDamageRate</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -82,6 +85,9 @@
   </si>
   <si>
     <t>攻击距离(*1000)</t>
+  </si>
+  <si>
+    <t>承受伤害千分比</t>
   </si>
   <si>
     <t>上官唯</t>
@@ -1091,10 +1097,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1106,9 +1112,10 @@
     <col min="8" max="8" width="14.625" style="1" customWidth="1"/>
     <col min="9" max="9" width="15.875" style="1" customWidth="1"/>
     <col min="10" max="10" width="14.875" customWidth="1"/>
+    <col min="11" max="11" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1139,72 +1146,81 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" ht="93" customHeight="1" spans="1:10">
+        <v>11</v>
+      </c>
+      <c r="K2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" ht="93" customHeight="1" spans="1:11">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>22</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1212,7 +1228,7 @@
         <v>10001001</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" s="5">
         <v>230</v>
@@ -1221,7 +1237,7 @@
         <v>35</v>
       </c>
       <c r="F4" s="6">
-        <v>2600</v>
+        <v>10000000</v>
       </c>
       <c r="G4" s="6">
         <v>100</v>
@@ -1235,8 +1251,11 @@
       <c r="J4">
         <v>1500</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1244,7 +1263,7 @@
         <v>10001002</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" s="5">
         <v>100</v>
@@ -1267,8 +1286,11 @@
       <c r="J5">
         <v>6000</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1276,7 +1298,7 @@
         <v>10001003</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" s="5">
         <v>300</v>
@@ -1285,19 +1307,22 @@
         <v>20</v>
       </c>
       <c r="F6" s="6">
-        <v>10000</v>
+        <v>10000000</v>
       </c>
       <c r="G6" s="6">
         <v>125</v>
       </c>
       <c r="H6" s="7">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="I6" s="7">
         <v>4000</v>
       </c>
       <c r="J6">
         <v>8500</v>
+      </c>
+      <c r="K6">
+        <v>1000</v>
       </c>
     </row>
     <row r="7" spans="3:9">
@@ -1318,7 +1343,7 @@
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1326,7 +1351,7 @@
         <v>10003001</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" s="5">
         <v>135</v>
@@ -1335,7 +1360,7 @@
         <v>6</v>
       </c>
       <c r="F9" s="6">
-        <v>750</v>
+        <v>10000000</v>
       </c>
       <c r="G9" s="6">
         <v>125</v>
@@ -1344,13 +1369,16 @@
         <v>750</v>
       </c>
       <c r="I9" s="7">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="J9">
         <v>1500</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1358,7 +1386,7 @@
         <v>10003002</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D10" s="5">
         <v>95</v>
@@ -1367,7 +1395,7 @@
         <v>6</v>
       </c>
       <c r="F10" s="6">
-        <v>550</v>
+        <v>10000000</v>
       </c>
       <c r="G10" s="6">
         <v>125</v>
@@ -1376,10 +1404,13 @@
         <v>1000</v>
       </c>
       <c r="I10" s="7">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="J10">
         <v>4500</v>
+      </c>
+      <c r="K10">
+        <v>1000</v>
       </c>
     </row>
     <row r="11" spans="3:9">
@@ -1436,7 +1467,7 @@
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -1444,7 +1475,7 @@
         <v>10003031</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D17" s="5">
         <v>150</v>
@@ -1462,10 +1493,13 @@
         <v>1000</v>
       </c>
       <c r="I17" s="7">
-        <v>3600</v>
+        <v>2000</v>
       </c>
       <c r="J17">
         <v>1500</v>
+      </c>
+      <c r="K17">
+        <v>1000</v>
       </c>
     </row>
     <row r="18" spans="3:9">

--- a/data_table/EntityAttrBase.xlsx
+++ b/data_table/EntityAttrBase.xlsx
@@ -1100,7 +1100,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1237,13 +1237,13 @@
         <v>35</v>
       </c>
       <c r="F4" s="6">
-        <v>10000000</v>
+        <v>2000</v>
       </c>
       <c r="G4" s="6">
         <v>100</v>
       </c>
       <c r="H4" s="7">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="I4" s="7">
         <v>4000</v>
@@ -1307,7 +1307,7 @@
         <v>20</v>
       </c>
       <c r="F6" s="6">
-        <v>10000000</v>
+        <v>2000</v>
       </c>
       <c r="G6" s="6">
         <v>125</v>
@@ -1360,7 +1360,7 @@
         <v>6</v>
       </c>
       <c r="F9" s="6">
-        <v>10000000</v>
+        <v>2000</v>
       </c>
       <c r="G9" s="6">
         <v>125</v>
@@ -1395,7 +1395,7 @@
         <v>6</v>
       </c>
       <c r="F10" s="6">
-        <v>10000000</v>
+        <v>2000</v>
       </c>
       <c r="G10" s="6">
         <v>125</v>
@@ -1484,7 +1484,7 @@
         <v>20</v>
       </c>
       <c r="F17" s="6">
-        <v>30000000</v>
+        <v>5000</v>
       </c>
       <c r="G17" s="6">
         <v>125</v>

--- a/data_table/EntityAttrBase.xlsx
+++ b/data_table/EntityAttrBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -127,34 +127,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -171,6 +143,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -180,41 +191,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -265,7 +244,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,49 +280,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,121 +418,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,21 +471,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -518,6 +503,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,148 +576,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -752,52 +752,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1100,7 +1100,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1108,7 +1108,7 @@
     <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="3" width="10.875" customWidth="1"/>
     <col min="4" max="4" width="10.25" customWidth="1"/>
-    <col min="6" max="6" width="9.375"/>
+    <col min="6" max="6" width="10.375"/>
     <col min="8" max="8" width="14.625" style="1" customWidth="1"/>
     <col min="9" max="9" width="15.875" style="1" customWidth="1"/>
     <col min="10" max="10" width="14.875" customWidth="1"/>
@@ -1231,22 +1231,22 @@
         <v>24</v>
       </c>
       <c r="D4" s="5">
-        <v>230</v>
+        <v>500</v>
       </c>
       <c r="E4" s="6">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="F4" s="6">
-        <v>2000</v>
+        <v>3200</v>
       </c>
       <c r="G4" s="6">
         <v>100</v>
       </c>
       <c r="H4" s="7">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="I4" s="7">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="J4">
         <v>1500</v>
@@ -1266,25 +1266,25 @@
         <v>25</v>
       </c>
       <c r="D5" s="5">
-        <v>100</v>
+        <v>380</v>
       </c>
       <c r="E5" s="6">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="F5" s="6">
-        <v>300</v>
+        <v>2200</v>
       </c>
       <c r="G5" s="6">
         <v>125</v>
       </c>
       <c r="H5" s="7">
-        <v>850</v>
+        <v>1800</v>
       </c>
       <c r="I5" s="7">
         <v>4000</v>
       </c>
       <c r="J5">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="K5">
         <v>1000</v>
@@ -1301,25 +1301,25 @@
         <v>26</v>
       </c>
       <c r="D6" s="5">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="E6" s="6">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F6" s="6">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="G6" s="6">
         <v>125</v>
       </c>
       <c r="H6" s="7">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="I6" s="7">
         <v>4000</v>
       </c>
       <c r="J6">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="K6">
         <v>1000</v>
@@ -1354,19 +1354,19 @@
         <v>27</v>
       </c>
       <c r="D9" s="5">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="E9" s="6">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="F9" s="6">
-        <v>2000</v>
+        <v>900</v>
       </c>
       <c r="G9" s="6">
         <v>125</v>
       </c>
       <c r="H9" s="7">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="I9" s="7">
         <v>2000</v>
@@ -1389,25 +1389,25 @@
         <v>28</v>
       </c>
       <c r="D10" s="5">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="E10" s="6">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F10" s="6">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="G10" s="6">
         <v>125</v>
       </c>
       <c r="H10" s="7">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="I10" s="7">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="J10">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="K10">
         <v>1000</v>
@@ -1478,13 +1478,13 @@
         <v>29</v>
       </c>
       <c r="D17" s="5">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="E17" s="6">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F17" s="6">
-        <v>5000</v>
+        <v>40000</v>
       </c>
       <c r="G17" s="6">
         <v>125</v>
@@ -1493,7 +1493,7 @@
         <v>1000</v>
       </c>
       <c r="I17" s="7">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="J17">
         <v>1500</v>

--- a/data_table/EntityAttrBase.xlsx
+++ b/data_table/EntityAttrBase.xlsx
@@ -11,7 +11,20 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -111,7 +124,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1100,7 +1113,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1307,7 +1320,7 @@
         <v>40</v>
       </c>
       <c r="F6" s="6">
-        <v>2200</v>
+        <v>220000</v>
       </c>
       <c r="G6" s="6">
         <v>125</v>

--- a/data_table/EntityAttrBase.xlsx
+++ b/data_table/EntityAttrBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="16650" windowHeight="11655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1113,7 +1113,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1250,7 +1250,7 @@
         <v>80</v>
       </c>
       <c r="F4" s="6">
-        <v>3200</v>
+        <v>400000000</v>
       </c>
       <c r="G4" s="6">
         <v>100</v>
@@ -1285,13 +1285,13 @@
         <v>40</v>
       </c>
       <c r="F5" s="6">
-        <v>2200</v>
+        <v>400000000</v>
       </c>
       <c r="G5" s="6">
         <v>125</v>
       </c>
       <c r="H5" s="7">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="I5" s="7">
         <v>4000</v>
@@ -1320,16 +1320,16 @@
         <v>40</v>
       </c>
       <c r="F6" s="6">
-        <v>220000</v>
+        <v>400000000</v>
       </c>
       <c r="G6" s="6">
         <v>125</v>
       </c>
       <c r="H6" s="7">
-        <v>1800</v>
+        <v>5000</v>
       </c>
       <c r="I6" s="7">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="J6">
         <v>7000</v>
@@ -1373,7 +1373,7 @@
         <v>30</v>
       </c>
       <c r="F9" s="6">
-        <v>900</v>
+        <v>9000000</v>
       </c>
       <c r="G9" s="6">
         <v>125</v>
@@ -1408,7 +1408,7 @@
         <v>15</v>
       </c>
       <c r="F10" s="6">
-        <v>500</v>
+        <v>5000000</v>
       </c>
       <c r="G10" s="6">
         <v>125</v>
@@ -1497,7 +1497,7 @@
         <v>100</v>
       </c>
       <c r="F17" s="6">
-        <v>40000</v>
+        <v>400000000</v>
       </c>
       <c r="G17" s="6">
         <v>125</v>

--- a/data_table/EntityAttrBase.xlsx
+++ b/data_table/EntityAttrBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16650" windowHeight="11655"/>
+    <workbookView windowWidth="23550" windowHeight="11655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1113,7 +1113,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1326,7 +1326,7 @@
         <v>125</v>
       </c>
       <c r="H6" s="7">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="I6" s="7">
         <v>6000</v>
